--- a/relazione/risultati/cplex_results.xlsx
+++ b/relazione/risultati/cplex_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>CPLEX</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Tempo medio</t>
+  </si>
+  <si>
+    <t>N° &gt;= 3600</t>
   </si>
 </sst>
 </file>
@@ -175,15 +178,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.8367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,6 +905,17 @@
       <c r="E42" s="2"/>
       <c r="G42" s="1" t="n">
         <v>235.915</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <f aca="false">COUNTIF(B3:B42, 3600)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -942,15 +956,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.8367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,6 +1486,17 @@
       </c>
       <c r="C41" s="1" t="n">
         <v>362.039</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <f aca="false">COUNTIF(B2:B41, 3600)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1490,15 +1515,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.8367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,6 +2045,17 @@
       </c>
       <c r="C41" s="1" t="n">
         <v>407.188</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <f aca="false">COUNTIF(B2:B41,"&gt;= 3600")</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2046,7 +2082,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.8367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/relazione/risultati/cplex_results.xlsx
+++ b/relazione/risultati/cplex_results.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>CPLEX</t>
   </si>
@@ -180,8 +180,8 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -914,7 +914,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <f aca="false">COUNTIF(B3:B42, 3600)</f>
+        <f aca="false">COUNTIF(B3:B42,"&gt;= 3600")</f>
         <v>0</v>
       </c>
     </row>
@@ -958,8 +958,8 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <f aca="false">COUNTIF(B2:B41, 3600)</f>
+        <f aca="false">COUNTIF(B2:B41,"&gt;= 3600")</f>
         <v>4</v>
       </c>
     </row>
@@ -1517,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2074,10 +2074,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2604,6 +2604,17 @@
       </c>
       <c r="C41" s="1" t="n">
         <v>297.516</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <f aca="false">COUNTIF(B2:B41,"&gt;= 3600")</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
